--- a/data/lessons/BLM001/table2.xlsx
+++ b/data/lessons/BLM001/table2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,8 +443,7 @@
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TOPLAM</t>
         </is>
@@ -460,18 +459,15 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,20 +487,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quiz</t>
+          <t>Vize</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vize</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>TOPLAM</t>
         </is>
@@ -521,16 +512,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -544,16 +532,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -567,15 +552,12 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -590,15 +572,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -619,10 +598,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/lessons/BLM001/table2.xlsx
+++ b/data/lessons/BLM001/table2.xlsx
@@ -434,15 +434,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Değerlendirmeler</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr"/>
-      <c r="E1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TOPLAM</t>
